--- a/NOVO/Tabelas.xlsx
+++ b/NOVO/Tabelas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22740" windowHeight="5664" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22740" windowHeight="5664"/>
   </bookViews>
   <sheets>
     <sheet name="Distribuição Postos por Salas" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Número Sala</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Sala de Telecomunicações e Bastidores</t>
   </si>
   <si>
-    <t>1 Bastidor / 1 Router / 2 Switches</t>
-  </si>
-  <si>
     <t>Sala de Reuniões e Demonstrações</t>
   </si>
   <si>
@@ -112,6 +109,12 @@
   </si>
   <si>
     <t>Distribuição dos postos de trabalho e equipamentos diversos pelas salas</t>
+  </si>
+  <si>
+    <t>Vão ser adicionadas mais 1 tomada em cada sala.</t>
+  </si>
+  <si>
+    <t>1 Bastidor / 1 Router / 2 Switches / 1 Telefone(s)</t>
   </si>
 </sst>
 </file>
@@ -174,10 +177,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -196,15 +199,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela1" displayName="Tabela1" ref="A3:F24" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela1" displayName="Tabela1" ref="A3:F24" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="A3:F24"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Número Sala" dataDxfId="6"/>
-    <tableColumn id="2" name="Sala" dataDxfId="5"/>
-    <tableColumn id="3" name="Postos de Trabalho" dataDxfId="4"/>
-    <tableColumn id="4" name="Outros Equipamentos" dataDxfId="3"/>
-    <tableColumn id="5" name="Número de Tomadas Duplas (incluindo folgas)" dataDxfId="2"/>
-    <tableColumn id="6" name="Número de Portas ligadas aos Switches" dataDxfId="1"/>
+    <tableColumn id="1" name="Número Sala" dataDxfId="5"/>
+    <tableColumn id="2" name="Sala" dataDxfId="4"/>
+    <tableColumn id="3" name="Postos de Trabalho" dataDxfId="3"/>
+    <tableColumn id="4" name="Outros Equipamentos" dataDxfId="2"/>
+    <tableColumn id="5" name="Número de Tomadas Duplas (incluindo folgas)" dataDxfId="1"/>
+    <tableColumn id="6" name="Número de Portas ligadas aos Switches" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -509,21 +512,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
     <col min="5" max="5" width="23.109375" customWidth="1"/>
     <col min="6" max="6" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -560,10 +565,10 @@
         <v>7</v>
       </c>
       <c r="E4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -580,10 +585,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -600,10 +605,10 @@
         <v>7</v>
       </c>
       <c r="E6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -620,10 +625,10 @@
         <v>7</v>
       </c>
       <c r="E7" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -643,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -660,10 +665,10 @@
         <v>7</v>
       </c>
       <c r="E9" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -683,7 +688,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -700,10 +705,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -720,10 +725,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -740,10 +745,10 @@
         <v>12</v>
       </c>
       <c r="E13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -760,10 +765,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -780,10 +785,10 @@
         <v>7</v>
       </c>
       <c r="E15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -800,10 +805,10 @@
         <v>18</v>
       </c>
       <c r="E16" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -820,10 +825,10 @@
         <v>18</v>
       </c>
       <c r="E17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -840,10 +845,10 @@
         <v>18</v>
       </c>
       <c r="E18" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -857,13 +862,13 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -871,7 +876,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="3">
         <v>5</v>
@@ -880,10 +885,10 @@
         <v>9</v>
       </c>
       <c r="E20" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -891,19 +896,19 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -911,7 +916,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -931,13 +936,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="3">
         <v>4</v>
@@ -948,7 +953,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3">
@@ -959,15 +964,22 @@
         <v>19</v>
       </c>
       <c r="E24" s="3">
-        <v>60</v>
+        <f>SUM(E4:E23)</f>
+        <v>66</v>
       </c>
       <c r="F24" s="3">
-        <v>49</v>
+        <f>SUM(F4:F23)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -982,7 +994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/NOVO/Tabelas.xlsx
+++ b/NOVO/Tabelas.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22740" windowHeight="5664"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22740" windowHeight="5664" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Distribuição Postos por Salas" sheetId="1" r:id="rId1"/>
-    <sheet name="Folha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Equipamentos Activos" sheetId="2" r:id="rId2"/>
+    <sheet name="Equipamentos Passivos" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>Número Sala</t>
   </si>
@@ -115,6 +119,78 @@
   </si>
   <si>
     <t>1 Bastidor / 1 Router / 2 Switches / 1 Telefone(s)</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Fabricante</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Observações</t>
+  </si>
+  <si>
+    <t>Equipamento</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Cisco</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>24 portas cada</t>
+  </si>
+  <si>
+    <t>Tomadas</t>
+  </si>
+  <si>
+    <t>Passivo</t>
+  </si>
+  <si>
+    <t>Indicar Tomadas para ligar equipamentos à corrente</t>
+  </si>
+  <si>
+    <t>Cablagem</t>
+  </si>
+  <si>
+    <t>Indicar Tomadas RJ45</t>
+  </si>
+  <si>
+    <t>Patch Panel</t>
+  </si>
+  <si>
+    <t>Em vez de cablagem colocar -&gt; CABO UTP Cat 6</t>
+  </si>
+  <si>
+    <t>Esteira</t>
+  </si>
+  <si>
+    <t>Indicar tomadas e fichas RJ45 (são diferentes)</t>
+  </si>
+  <si>
+    <t>Calha Técnica</t>
+  </si>
+  <si>
+    <t>Fichas que estao no bastiro - quantidade 2</t>
+  </si>
+  <si>
+    <t>Bastidor</t>
+  </si>
+  <si>
+    <t>Equipamentos Activos</t>
   </si>
 </sst>
 </file>
@@ -198,6 +274,21 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Tabela"/>
+      <sheetName val="Opções"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela1" displayName="Tabela1" ref="A3:F24" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="A3:F24"/>
@@ -208,6 +299,21 @@
     <tableColumn id="4" name="Outros Equipamentos" dataDxfId="2"/>
     <tableColumn id="5" name="Número de Tomadas Duplas (incluindo folgas)" dataDxfId="1"/>
     <tableColumn id="6" name="Número de Portas ligadas aos Switches" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela3" displayName="Tabela3" ref="A3:F12" totalsRowShown="0">
+  <autoFilter ref="A3:F12"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Quantidade"/>
+    <tableColumn id="2" name="Nome"/>
+    <tableColumn id="3" name="Fabricante"/>
+    <tableColumn id="4" name="Modelo"/>
+    <tableColumn id="5" name="Observações"/>
+    <tableColumn id="6" name="Equipamento"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -512,18 +618,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="55.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" customWidth="1"/>
+    <col min="6" max="6" width="36.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -535,7 +641,7 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -992,9 +1098,180 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Equipamentos Activos e Passivos.xlsx]Opções'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Equipamentos Activos e Passivos.xlsx]Opções'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>F12</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/NOVO/Tabelas.xlsx
+++ b/NOVO/Tabelas.xlsx
@@ -9,15 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22740" windowHeight="5664" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22740" windowHeight="5664" tabRatio="729" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Distribuição Postos por Salas" sheetId="1" r:id="rId1"/>
-    <sheet name="Equipamentos Activos" sheetId="2" r:id="rId2"/>
-    <sheet name="Equipamentos Passivos" sheetId="3" r:id="rId3"/>
+    <sheet name="VLAN's" sheetId="4" r:id="rId2"/>
+    <sheet name="Identificação Cablagem Horizont" sheetId="6" r:id="rId3"/>
+    <sheet name="VLAN's Endereços" sheetId="5" r:id="rId4"/>
+    <sheet name="Equipamentos Activos" sheetId="2" r:id="rId5"/>
+    <sheet name="Equipamentos Passivos" sheetId="3" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="264">
   <si>
     <t>Número Sala</t>
   </si>
@@ -191,13 +195,643 @@
   </si>
   <si>
     <t>Equipamentos Activos</t>
+  </si>
+  <si>
+    <t>Descrição da VLAN</t>
+  </si>
+  <si>
+    <t>Nome da VLAN</t>
+  </si>
+  <si>
+    <t>VLAN ID</t>
+  </si>
+  <si>
+    <t>Salas</t>
+  </si>
+  <si>
+    <t>Número de PC's</t>
+  </si>
+  <si>
+    <t>Número de outros equipamentos</t>
+  </si>
+  <si>
+    <t>Número total com folga</t>
+  </si>
+  <si>
+    <t>Endereçamento IP</t>
+  </si>
+  <si>
+    <t>Normas</t>
+  </si>
+  <si>
+    <t>Desenvolvimento</t>
+  </si>
+  <si>
+    <t>desenvolvimento</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 11 e 12</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Nome VLAN</t>
+  </si>
+  <si>
+    <t>letras todas em minúsculas, sempre que existir mais que uma palavra estas devem estar ligadas por um hífen '-'. Exemplo: 'area-financeira'</t>
+  </si>
+  <si>
+    <t>Testes</t>
+  </si>
+  <si>
+    <t>testes</t>
+  </si>
+  <si>
+    <t>13, 14 e 15</t>
+  </si>
+  <si>
+    <t>ID VLAN</t>
+  </si>
+  <si>
+    <t>A 1ª VLAN deve começar com o ID 10 e as seguintes VLAN'S devem somar 10 ao valor do id da VLAN anterior. Caso não seja possível continuar com este esquema. Então os Ids devem passar a ser ocupados do mais pequeno para o maior. O ID da VLAN de gestão da rede não segue estas normas e por omissão é o ID 99.  -&gt; Ler http://networkengineering.stackexchange.com/questions/3482/why-is-4096-the-max-value-for-vlans</t>
+  </si>
+  <si>
+    <t>Periféricos</t>
+  </si>
+  <si>
+    <t>perifericos</t>
+  </si>
+  <si>
+    <t>administracao</t>
+  </si>
+  <si>
+    <t>6 e 7</t>
+  </si>
+  <si>
+    <t>Área Financeira</t>
+  </si>
+  <si>
+    <t>area-financeira</t>
+  </si>
+  <si>
+    <t>Apoio Informático</t>
+  </si>
+  <si>
+    <t>apoio-informático</t>
+  </si>
+  <si>
+    <t>Secretariado</t>
+  </si>
+  <si>
+    <t>secretariado</t>
+  </si>
+  <si>
+    <t>9 e 18</t>
+  </si>
+  <si>
+    <t>Arquivo e Reuniões</t>
+  </si>
+  <si>
+    <t>arquivo-reunioes</t>
+  </si>
+  <si>
+    <t>5 e 17</t>
+  </si>
+  <si>
+    <t>Gestão da Rede</t>
+  </si>
+  <si>
+    <t>gestao-rede</t>
+  </si>
+  <si>
+    <t>É a soma de nº pcs + nº outros equipamentos??? Ou é o nº de ips que uma vlan pode ter?</t>
+  </si>
+  <si>
+    <t>Descrição das VLAN's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome VLAN </t>
+  </si>
+  <si>
+    <t>IP Address</t>
+  </si>
+  <si>
+    <t>Máscara</t>
+  </si>
+  <si>
+    <t>Broadcast address</t>
+  </si>
+  <si>
+    <t>Tomada</t>
+  </si>
+  <si>
+    <t>Porta</t>
+  </si>
+  <si>
+    <t>Tipo de Cabo</t>
+  </si>
+  <si>
+    <t>Em Utilização</t>
+  </si>
+  <si>
+    <t>Identificação</t>
+  </si>
+  <si>
+    <t>Convenção</t>
+  </si>
+  <si>
+    <t>Explicação</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.1.1A</t>
+  </si>
+  <si>
+    <t>Sala 1.16</t>
+  </si>
+  <si>
+    <t>SW1.1</t>
+  </si>
+  <si>
+    <t>Cat. 6</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>[piso.sala]</t>
+  </si>
+  <si>
+    <t>1.1.1B</t>
+  </si>
+  <si>
+    <t>[ piso.sala.número da tomada[A|B] ]</t>
+  </si>
+  <si>
+    <t>1.1.2A</t>
+  </si>
+  <si>
+    <t>IP Phone</t>
+  </si>
+  <si>
+    <t>[[SALA] piso.sala]</t>
+  </si>
+  <si>
+    <t>1.1.2B</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>[[SW].número do andar.número do switch]</t>
+  </si>
+  <si>
+    <t>Por cada andar o número do switch começa do 1</t>
+  </si>
+  <si>
+    <t>1.1.3A</t>
+  </si>
+  <si>
+    <t>[número da porta]</t>
+  </si>
+  <si>
+    <t>1.1.3B</t>
+  </si>
+  <si>
+    <t>[[CAT]. número da categoria]</t>
+  </si>
+  <si>
+    <t>1.1.4A</t>
+  </si>
+  <si>
+    <t>Utilização</t>
+  </si>
+  <si>
+    <t>[identificação]</t>
+  </si>
+  <si>
+    <t>1.1.4B</t>
+  </si>
+  <si>
+    <t>[[RT].número do andar.número do router</t>
+  </si>
+  <si>
+    <t>Por cada andar o número do router começa do 1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.2.1A</t>
+  </si>
+  <si>
+    <t>1.2.1B</t>
+  </si>
+  <si>
+    <t>1.2.2A</t>
+  </si>
+  <si>
+    <t>1.2.2B</t>
+  </si>
+  <si>
+    <t>1.2.3A</t>
+  </si>
+  <si>
+    <t>Identificação do router é [[RT].número do piso.número de identificação</t>
+  </si>
+  <si>
+    <t>1.2.3B</t>
+  </si>
+  <si>
+    <t>Mudar -&gt;</t>
+  </si>
+  <si>
+    <t>Identificação do switch é [[SW].número do piso.número de identificação</t>
+  </si>
+  <si>
+    <t>1.2.4A</t>
+  </si>
+  <si>
+    <t>1.2.4B</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.3.1A</t>
+  </si>
+  <si>
+    <t>1.3.1B</t>
+  </si>
+  <si>
+    <t>1.3.2A</t>
+  </si>
+  <si>
+    <t>1.3.2B</t>
+  </si>
+  <si>
+    <t>1.3.3A</t>
+  </si>
+  <si>
+    <t>1.3.3B</t>
+  </si>
+  <si>
+    <t>1.3.4A</t>
+  </si>
+  <si>
+    <t>1.3.4B</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.4.1A</t>
+  </si>
+  <si>
+    <t>1.4.1B</t>
+  </si>
+  <si>
+    <t>1.4.2A</t>
+  </si>
+  <si>
+    <t>1.4.2B</t>
+  </si>
+  <si>
+    <t>1.4.3A</t>
+  </si>
+  <si>
+    <t>1.4.3B</t>
+  </si>
+  <si>
+    <t>1.4.4A</t>
+  </si>
+  <si>
+    <t>1.4.4B</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.5.1A</t>
+  </si>
+  <si>
+    <t>1.5.1B</t>
+  </si>
+  <si>
+    <t>1.5.2A</t>
+  </si>
+  <si>
+    <t>1.5.2B</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.6.1A</t>
+  </si>
+  <si>
+    <t>SW1.2</t>
+  </si>
+  <si>
+    <t>1.6.1B</t>
+  </si>
+  <si>
+    <t>1.6.2A</t>
+  </si>
+  <si>
+    <t>1.6.2B</t>
+  </si>
+  <si>
+    <t>1.6.3A</t>
+  </si>
+  <si>
+    <t>1.6.3B</t>
+  </si>
+  <si>
+    <t>1.6.4A</t>
+  </si>
+  <si>
+    <t>1.6.4B</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.7.1A</t>
+  </si>
+  <si>
+    <t>1.7.1B</t>
+  </si>
+  <si>
+    <t>1.7.2A</t>
+  </si>
+  <si>
+    <t>1.7.2B</t>
+  </si>
+  <si>
+    <t>1.7.3A</t>
+  </si>
+  <si>
+    <t>1.7.3B</t>
+  </si>
+  <si>
+    <t>1.7.4A</t>
+  </si>
+  <si>
+    <t>1.7.4B</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1.8.1A</t>
+  </si>
+  <si>
+    <t>1.8.1B</t>
+  </si>
+  <si>
+    <t>1.8.2A</t>
+  </si>
+  <si>
+    <t>1.8.2B</t>
+  </si>
+  <si>
+    <t>1.8.3A</t>
+  </si>
+  <si>
+    <t>1.8.3B</t>
+  </si>
+  <si>
+    <t>1.8.4A</t>
+  </si>
+  <si>
+    <t>1.8.4B</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>1.9.1A</t>
+  </si>
+  <si>
+    <t>1.9.1B</t>
+  </si>
+  <si>
+    <t>1.9.2A</t>
+  </si>
+  <si>
+    <t>1.9.2B</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>1.10.1A</t>
+  </si>
+  <si>
+    <t>1.10.2A</t>
+  </si>
+  <si>
+    <t>1.10.2B</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>1.11.1A</t>
+  </si>
+  <si>
+    <t>1.11.1B</t>
+  </si>
+  <si>
+    <t>1.11.2A</t>
+  </si>
+  <si>
+    <t>1.11.2B</t>
+  </si>
+  <si>
+    <t>1.11.3A</t>
+  </si>
+  <si>
+    <t>1.11.3B</t>
+  </si>
+  <si>
+    <t>1.11.4A</t>
+  </si>
+  <si>
+    <t>1.11.4B</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>1.12.1A</t>
+  </si>
+  <si>
+    <t>1.12.1B</t>
+  </si>
+  <si>
+    <t>1.12.2A</t>
+  </si>
+  <si>
+    <t>1.12.2B</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>1.13.1A</t>
+  </si>
+  <si>
+    <t>1.13.1B</t>
+  </si>
+  <si>
+    <t>1.13.2A</t>
+  </si>
+  <si>
+    <t>1.13.2B</t>
+  </si>
+  <si>
+    <t>1.13.3A</t>
+  </si>
+  <si>
+    <t>1.13.3B</t>
+  </si>
+  <si>
+    <t>1.13.4A</t>
+  </si>
+  <si>
+    <t>1.134B</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>1.14.1A</t>
+  </si>
+  <si>
+    <t>1.14.1B</t>
+  </si>
+  <si>
+    <t>1.14.2A</t>
+  </si>
+  <si>
+    <t>1.14.2B</t>
+  </si>
+  <si>
+    <t>1.14.3A</t>
+  </si>
+  <si>
+    <t>1.14.3B</t>
+  </si>
+  <si>
+    <t>1.14.4A</t>
+  </si>
+  <si>
+    <t>1.14.4B</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>1.15.1A</t>
+  </si>
+  <si>
+    <t>1.15.1B</t>
+  </si>
+  <si>
+    <t>1.15.2A</t>
+  </si>
+  <si>
+    <t>1.15.2B</t>
+  </si>
+  <si>
+    <t>1.15.3A</t>
+  </si>
+  <si>
+    <t>1.15.3B</t>
+  </si>
+  <si>
+    <t>1.15.4A</t>
+  </si>
+  <si>
+    <t>1.15.4B</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>1.17.1A</t>
+  </si>
+  <si>
+    <t>1.17.1B</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>1.18.1A</t>
+  </si>
+  <si>
+    <t>1.18.1B</t>
+  </si>
+  <si>
+    <t>1.18.2A</t>
+  </si>
+  <si>
+    <t>1.18.2B</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>1.20.1A</t>
+  </si>
+  <si>
+    <t>Impressora</t>
+  </si>
+  <si>
+    <t>1.20.1B</t>
+  </si>
+  <si>
+    <t>1.20.2A</t>
+  </si>
+  <si>
+    <t>NÃO EXISTE PORTA 25 NO MODELO QUE ESTAMOS A USAR, LOGO OS SWITCHES A USAR NÃO CHEGAM!</t>
+  </si>
+  <si>
+    <t>1.20.2B</t>
+  </si>
+  <si>
+    <t>1.20.3A</t>
+  </si>
+  <si>
+    <t>1.203B</t>
+  </si>
+  <si>
+    <t>1.20.4A</t>
+  </si>
+  <si>
+    <t>1.20.4B</t>
+  </si>
+  <si>
+    <t>Colocar uma linha a cinzento sem nada entre salas!</t>
+  </si>
+  <si>
+    <t>Identificação da Cablagem Horizontal</t>
+  </si>
+  <si>
+    <t>Equipamentos Passivos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,13 +839,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -226,7 +886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -235,11 +895,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="24">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -289,22 +1019,93 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Identificação"/>
+      <sheetName val="Opções"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela1" displayName="Tabela1" ref="A3:F24" totalsRowShown="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela1" displayName="Tabela1" ref="A3:F24" totalsRowShown="0" dataDxfId="23">
   <autoFilter ref="A3:F24"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Número Sala" dataDxfId="5"/>
-    <tableColumn id="2" name="Sala" dataDxfId="4"/>
-    <tableColumn id="3" name="Postos de Trabalho" dataDxfId="3"/>
-    <tableColumn id="4" name="Outros Equipamentos" dataDxfId="2"/>
-    <tableColumn id="5" name="Número de Tomadas Duplas (incluindo folgas)" dataDxfId="1"/>
-    <tableColumn id="6" name="Número de Portas ligadas aos Switches" dataDxfId="0"/>
+    <tableColumn id="1" name="Número Sala" dataDxfId="22"/>
+    <tableColumn id="2" name="Sala" dataDxfId="21"/>
+    <tableColumn id="3" name="Postos de Trabalho" dataDxfId="20"/>
+    <tableColumn id="4" name="Outros Equipamentos" dataDxfId="19"/>
+    <tableColumn id="5" name="Número de Tomadas Duplas (incluindo folgas)" dataDxfId="18"/>
+    <tableColumn id="6" name="Número de Portas ligadas aos Switches" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A3:H12" totalsRowShown="0" dataDxfId="16">
+  <autoFilter ref="A3:H12"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Descrição da VLAN" dataDxfId="15"/>
+    <tableColumn id="2" name="Nome da VLAN" dataDxfId="14"/>
+    <tableColumn id="3" name="VLAN ID" dataDxfId="13"/>
+    <tableColumn id="4" name="Salas" dataDxfId="12"/>
+    <tableColumn id="5" name="Número de PC's" dataDxfId="11"/>
+    <tableColumn id="6" name="Número de outros equipamentos" dataDxfId="10"/>
+    <tableColumn id="7" name="Número total com folga" dataDxfId="9"/>
+    <tableColumn id="8" name="Endereçamento IP" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela2" displayName="Tabela2" ref="K3:L5" totalsRowShown="0">
+  <autoFilter ref="K3:L5"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Normas"/>
+    <tableColumn id="2" name="Observações"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A3:G121" totalsRowShown="0" dataDxfId="7">
+  <autoFilter ref="A3:G121"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Sala" dataDxfId="6"/>
+    <tableColumn id="2" name="Tomada" dataDxfId="5"/>
+    <tableColumn id="3" name="Patch Panel" dataDxfId="4"/>
+    <tableColumn id="4" name="Switch" dataDxfId="3"/>
+    <tableColumn id="5" name="Porta" dataDxfId="2"/>
+    <tableColumn id="6" name="Tipo de Cabo" dataDxfId="1"/>
+    <tableColumn id="7" name="Em Utilização" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela4" displayName="Tabela4" ref="L3:N11" totalsRowShown="0">
+  <autoFilter ref="L3:N11"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Identificação"/>
+    <tableColumn id="2" name="Convenção"/>
+    <tableColumn id="3" name="Explicação"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela3" displayName="Tabela3" ref="A3:F12" totalsRowShown="0">
   <autoFilter ref="A3:F12"/>
   <tableColumns count="6">
@@ -619,7 +1420,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,9 +1434,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>27</v>
       </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1089,6 +1892,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1098,10 +1904,2687 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="3">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="3">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="3">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="3">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="3">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="3">
+        <v>60</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="3">
+        <v>70</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="3">
+        <v>80</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="3">
+        <v>99</v>
+      </c>
+      <c r="D12" s="3">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G13" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="13" max="13" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" t="s">
+        <v>261</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" t="s">
+        <v>127</v>
+      </c>
+      <c r="N11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="7">
+        <v>6</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17" t="s">
+        <v>137</v>
+      </c>
+      <c r="L17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="3">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="3">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="3">
+        <v>9</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="3">
+        <v>10</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="3">
+        <v>11</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="3">
+        <v>12</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="3">
+        <v>13</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" s="3">
+        <v>6</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" s="3">
+        <v>14</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" s="3">
+        <v>15</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" s="3">
+        <v>16</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E64" s="3">
+        <v>7</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E65" s="3">
+        <v>8</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E68" s="3">
+        <v>17</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" s="3">
+        <v>18</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E72" s="3">
+        <v>19</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E73" s="3">
+        <v>20</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" s="3">
+        <v>21</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E80" s="3">
+        <v>22</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E81" s="3">
+        <v>23</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E84" s="3">
+        <v>9</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E85" s="3">
+        <v>10</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E86" s="3">
+        <v>11</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E87" s="3">
+        <v>12</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E92" s="3">
+        <v>13</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E93" s="3">
+        <v>14</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E94" s="3">
+        <v>15</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E95" s="3">
+        <v>16</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E96" s="3">
+        <v>17</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E100" s="3">
+        <v>18</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E101" s="3">
+        <v>19</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E102" s="3">
+        <v>20</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E108" s="3">
+        <v>24</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E110" s="3">
+        <v>21</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E111" s="3">
+        <v>22</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E114" s="3">
+        <v>23</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E115" s="3">
+        <v>24</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E116" s="9">
+        <v>25</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="H116" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Identificação da cablagem horizontal.xlsx]Opções'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>G4:G121</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Identificação da cablagem horizontal.xlsx]Opções'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>A4:A7 A9:A15 A20:A29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Identificação da cablagem horizontal.xlsx]Opções'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D4:D7 D12:D15 D20:D29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Identificação da cablagem horizontal.xlsx]Opções'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>E4:E7 E12:E15 E20:E29</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1115,9 +4598,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>53</v>
       </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1240,6 +4725,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1249,13 +4737,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[Equipamentos Activos e Passivos.xlsx]Opções'!#REF!</xm:f>
+            <xm:f>'C:\Users\artur\Documents\Projectos\Escola\Projecto_RC\Documentação\Tabelas\[Equipamentos Activos e Passivos.xlsx]Opções'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[Equipamentos Activos e Passivos.xlsx]Opções'!#REF!</xm:f>
+            <xm:f>'C:\Users\artur\Documents\Projectos\Escola\Projecto_RC\Documentação\Tabelas\[Equipamentos Activos e Passivos.xlsx]Opções'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>F12</xm:sqref>
         </x14:dataValidation>
@@ -1265,16 +4753,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NOVO/Tabelas.xlsx
+++ b/NOVO/Tabelas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22740" windowHeight="5664" tabRatio="729" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22740" windowHeight="5664" tabRatio="729" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Distribuição Postos por Salas" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="275">
   <si>
     <t>Número Sala</t>
   </si>
@@ -825,6 +825,39 @@
   </si>
   <si>
     <t>Equipamentos Passivos</t>
+  </si>
+  <si>
+    <t>Apoio informático junto ao desenvolvimento ?</t>
+  </si>
+  <si>
+    <t>1 telefone na sala electrica</t>
+  </si>
+  <si>
+    <t>1 telefone bar</t>
+  </si>
+  <si>
+    <t>deixar portas nos switches livres</t>
+  </si>
+  <si>
+    <t>1 pc pode ser ligado ao ip phone e este ao pc se o ip phone fizer switchin</t>
+  </si>
+  <si>
+    <t>funcionalidades por vlan</t>
+  </si>
+  <si>
+    <t>ter 2 telefones na sala do servidor - é comum 2 pessoas estarem la a trabalhar</t>
+  </si>
+  <si>
+    <t>Adicionar 1 telefone no bar</t>
+  </si>
+  <si>
+    <t>Existe a VLAN VOIP? - e todos os telefones estão ligados a esta?</t>
+  </si>
+  <si>
+    <t>desaparece</t>
+  </si>
+  <si>
+    <t>vlans guest - wireless - autenticacao fica restringido  - máximo 30 users</t>
   </si>
 </sst>
 </file>
@@ -886,7 +919,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -914,12 +947,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1008,11 +1048,11 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Tabela"/>
+      <sheetName val="Identificação"/>
       <sheetName val="Opções"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
@@ -1023,11 +1063,11 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Identificação"/>
+      <sheetName val="Tabela"/>
       <sheetName val="Opções"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
@@ -1055,12 +1095,12 @@
   <tableColumns count="8">
     <tableColumn id="1" name="Descrição da VLAN" dataDxfId="15"/>
     <tableColumn id="2" name="Nome da VLAN" dataDxfId="14"/>
-    <tableColumn id="3" name="VLAN ID" dataDxfId="13"/>
-    <tableColumn id="4" name="Salas" dataDxfId="12"/>
-    <tableColumn id="5" name="Número de PC's" dataDxfId="11"/>
-    <tableColumn id="6" name="Número de outros equipamentos" dataDxfId="10"/>
-    <tableColumn id="7" name="Número total com folga" dataDxfId="9"/>
-    <tableColumn id="8" name="Endereçamento IP" dataDxfId="8"/>
+    <tableColumn id="3" name="VLAN ID" dataDxfId="2"/>
+    <tableColumn id="4" name="Salas" dataDxfId="0"/>
+    <tableColumn id="5" name="Número de PC's" dataDxfId="1"/>
+    <tableColumn id="6" name="Número de outros equipamentos" dataDxfId="13"/>
+    <tableColumn id="7" name="Número total com folga" dataDxfId="12"/>
+    <tableColumn id="8" name="Endereçamento IP" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1078,16 +1118,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A3:G121" totalsRowShown="0" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A3:G121" totalsRowShown="0" dataDxfId="10">
   <autoFilter ref="A3:G121"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Sala" dataDxfId="6"/>
-    <tableColumn id="2" name="Tomada" dataDxfId="5"/>
-    <tableColumn id="3" name="Patch Panel" dataDxfId="4"/>
-    <tableColumn id="4" name="Switch" dataDxfId="3"/>
-    <tableColumn id="5" name="Porta" dataDxfId="2"/>
-    <tableColumn id="6" name="Tipo de Cabo" dataDxfId="1"/>
-    <tableColumn id="7" name="Em Utilização" dataDxfId="0"/>
+    <tableColumn id="1" name="Sala" dataDxfId="9"/>
+    <tableColumn id="2" name="Tomada" dataDxfId="8"/>
+    <tableColumn id="3" name="Patch Panel" dataDxfId="7"/>
+    <tableColumn id="4" name="Switch" dataDxfId="6"/>
+    <tableColumn id="5" name="Porta" dataDxfId="5"/>
+    <tableColumn id="6" name="Tipo de Cabo" dataDxfId="4"/>
+    <tableColumn id="7" name="Em Utilização" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1420,7 +1460,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1882,6 +1922,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>271</v>
+      </c>
       <c r="D27" t="s">
         <v>28</v>
       </c>
@@ -1904,10 +1947,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1942,7 +1985,7 @@
       <c r="C3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E3" t="s">
@@ -1974,7 +2017,7 @@
       <c r="C4" s="3">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E4" s="3">
@@ -2004,7 +2047,7 @@
       <c r="C5" s="3">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="9" t="s">
         <v>71</v>
       </c>
       <c r="E5" s="3">
@@ -2034,7 +2077,7 @@
       <c r="C6" s="3">
         <v>30</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="9">
         <v>20</v>
       </c>
       <c r="E6" s="3">
@@ -2058,7 +2101,7 @@
       <c r="C7" s="3">
         <v>40</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="9" t="s">
         <v>77</v>
       </c>
       <c r="E7" s="3">
@@ -2082,7 +2125,7 @@
       <c r="C8" s="3">
         <v>50</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="9">
         <v>8</v>
       </c>
       <c r="E8" s="3">
@@ -2106,7 +2149,7 @@
       <c r="C9" s="3">
         <v>60</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="9">
         <v>10</v>
       </c>
       <c r="E9" s="3">
@@ -2130,7 +2173,7 @@
       <c r="C10" s="3">
         <v>70</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="9" t="s">
         <v>84</v>
       </c>
       <c r="E10" s="3">
@@ -2154,7 +2197,7 @@
       <c r="C11" s="3">
         <v>80</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="9" t="s">
         <v>87</v>
       </c>
       <c r="E11" s="3">
@@ -2178,7 +2221,7 @@
       <c r="C12" s="3">
         <v>99</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="9">
         <v>16</v>
       </c>
       <c r="E12" s="3">
@@ -2193,8 +2236,56 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>273</v>
+      </c>
       <c r="G13" s="3" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2214,7 +2305,7 @@
   <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4524,25 +4615,25 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[Identificação da cablagem horizontal.xlsx]Opções'!#REF!</xm:f>
+            <xm:f>'C:\Users\artur\Documents\Projectos\Escola\Projecto_RC\Documentação\Tabelas\[Identificação da cablagem horizontal.xlsx]Opções'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G4:G121</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[Identificação da cablagem horizontal.xlsx]Opções'!#REF!</xm:f>
+            <xm:f>'C:\Users\artur\Documents\Projectos\Escola\Projecto_RC\Documentação\Tabelas\[Identificação da cablagem horizontal.xlsx]Opções'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A4:A7 A9:A15 A20:A29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[Identificação da cablagem horizontal.xlsx]Opções'!#REF!</xm:f>
+            <xm:f>'C:\Users\artur\Documents\Projectos\Escola\Projecto_RC\Documentação\Tabelas\[Identificação da cablagem horizontal.xlsx]Opções'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D4:D7 D12:D15 D20:D29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[Identificação da cablagem horizontal.xlsx]Opções'!#REF!</xm:f>
+            <xm:f>'C:\Users\artur\Documents\Projectos\Escola\Projecto_RC\Documentação\Tabelas\[Identificação da cablagem horizontal.xlsx]Opções'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E4:E7 E12:E15 E20:E29</xm:sqref>
         </x14:dataValidation>
@@ -4757,7 +4848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
